--- a/nr-update-recherche/ig/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/nr-update-recherche/ig/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T13:26:56+00:00</t>
+    <t>2026-01-14T13:35:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-recherche/ig/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/nr-update-recherche/ig/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T13:35:54+00:00</t>
+    <t>2026-01-14T15:22:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-recherche/ig/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/nr-update-recherche/ig/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:22:36+00:00</t>
+    <t>2026-01-14T15:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
